--- a/data/trans_orig/Q64C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>40.58824825457199</v>
+        <v>40.48619911234233</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>42.94660245222322</v>
+        <v>42.76121061976005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39.86465394289964</v>
+        <v>39.78521417328051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38.27531565483489</v>
+        <v>38.26322009884997</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>36.74525343472943</v>
+        <v>36.7168993496848</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>34.74225088179028</v>
+        <v>34.42645888881531</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>34.76092830550067</v>
+        <v>34.67411454046284</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>36.62126229244824</v>
+        <v>36.66974878749709</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>39.38259886332567</v>
+        <v>39.44029415230239</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40.30419692740223</v>
+        <v>39.94472641064178</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38.22131150549794</v>
+        <v>38.22984642695862</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>37.95286912440326</v>
+        <v>37.95182219918794</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>43.49256532605654</v>
+        <v>43.33491408789481</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>47.62022105847598</v>
+        <v>47.86492640542717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44.60367844538403</v>
+        <v>44.38393807974223</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40.2658477430735</v>
+        <v>40.19295753711243</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>41.02923658581534</v>
+        <v>41.11673498079763</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>41.01563279768956</v>
+        <v>41.09155733744531</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>39.95247088389396</v>
+        <v>39.86015351256906</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>38.47732496260768</v>
+        <v>38.38749761891602</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>41.94543119966918</v>
+        <v>41.94376971759868</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44.32258587428259</v>
+        <v>44.29031522259514</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41.81250748418584</v>
+        <v>41.81006610802861</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>39.31066205139384</v>
+        <v>39.31062849130074</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>38.3996059443058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41.02349469214212</v>
+        <v>41.02349469214214</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>34.67162032744646</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>38.7590719166408</v>
+        <v>38.85242263414059</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>37.85760435318786</v>
+        <v>37.79418910969405</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36.65089766869975</v>
+        <v>36.68369949380101</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40.00901039460344</v>
+        <v>39.88573193943786</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>32.48984104071712</v>
+        <v>32.52524280936153</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>33.07196219364702</v>
+        <v>33.04680331217991</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>32.63228455347523</v>
+        <v>32.61775388838915</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>34.23859589437699</v>
+        <v>34.06043717161617</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>37.02330714932052</v>
+        <v>37.13647777443954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36.28969339010305</v>
+        <v>36.51276695716797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35.60082752141624</v>
+        <v>35.67232878872686</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>37.97518025056985</v>
+        <v>37.8837815261436</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>41.63803770373369</v>
+        <v>41.7551650242851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>40.8994570341663</v>
+        <v>40.9530099000728</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39.8728842892745</v>
+        <v>39.83908892380746</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>42.06953507278098</v>
+        <v>42.11560501272573</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>37.44580987863721</v>
+        <v>37.5066459019306</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.94518624704263</v>
+        <v>37.66469992775851</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>37.65664836433309</v>
+        <v>37.60057602060581</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>37.20997424369219</v>
+        <v>37.06104695958202</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>39.65028608063621</v>
+        <v>39.80334812413793</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38.95442520411825</v>
+        <v>39.23545007911497</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38.4180300348274</v>
+        <v>38.53910640594877</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>39.73275693351891</v>
+        <v>39.74553116291511</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>41.37191827986306</v>
+        <v>41.36991514247141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>41.09550364406935</v>
+        <v>40.99032007529676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36.42816689425031</v>
+        <v>36.53761424039236</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39.27742674672629</v>
+        <v>39.39837301169432</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>34.18918041864778</v>
+        <v>34.40595436799451</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>32.6365511050101</v>
+        <v>32.80549916857534</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>32.08708215031589</v>
+        <v>32.16589687557504</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>34.65364540670092</v>
+        <v>34.61202571107791</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>39.348759473079</v>
+        <v>39.30211852426236</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38.36246926138991</v>
+        <v>38.35993274006978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35.20536430785801</v>
+        <v>35.29145569477078</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>37.8112014823592</v>
+        <v>37.64904903389512</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>43.65890289046695</v>
+        <v>43.6726491240122</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>43.6197346725363</v>
+        <v>43.56024820571398</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39.16525343944199</v>
+        <v>39.15753576261153</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42.69018319702686</v>
+        <v>42.69073258218803</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>38.06555338713634</v>
+        <v>38.00995713764626</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>37.06213542896329</v>
+        <v>37.39264306663498</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>35.91325652774229</v>
+        <v>36.12379295999603</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>37.550756994153</v>
+        <v>37.5234985991491</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>41.32769700518204</v>
+        <v>41.38013182449452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40.78799296046348</v>
+        <v>40.75989169711639</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37.57526739113649</v>
+        <v>37.51330067800909</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>40.20569127364722</v>
+        <v>39.92705425323128</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>28.17681339120984</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>33.81883143304223</v>
+        <v>33.81883143304224</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>39.37205786330069</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>39.78912115755899</v>
+        <v>39.6774571684337</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>39.24241897526257</v>
+        <v>39.11021730131773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39.62546870759745</v>
+        <v>39.72121174838765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39.0606153671304</v>
+        <v>38.85128448098619</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>35.0741828649578</v>
+        <v>35.0544407847959</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.26105558261187</v>
+        <v>29.37605746424942</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>25.43060021204239</v>
+        <v>25.22670364302757</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>31.96305960063111</v>
+        <v>32.03606490599871</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>38.17537385469319</v>
+        <v>38.45222273493967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35.52546661186398</v>
+        <v>35.45448686071305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33.89517195377675</v>
+        <v>34.08283468587198</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>36.32134099079013</v>
+        <v>36.38482153137296</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>41.92860865090351</v>
+        <v>41.97372129649671</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>42.72677534438102</v>
+        <v>42.45385117021129</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>44.57293986656681</v>
+        <v>44.48563942374091</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>43.82301992411883</v>
+        <v>43.65703600609915</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>38.77823839414489</v>
+        <v>38.76533269006183</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>33.87128986518426</v>
+        <v>33.69086942909385</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>31.26652228056606</v>
+        <v>31.2025747871447</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>35.35786129221372</v>
+        <v>35.3202523870172</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>40.29019080243162</v>
+        <v>40.36944264941341</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38.46806370647107</v>
+        <v>38.5605738177217</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38.20510979245707</v>
+        <v>38.36787523979511</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>39.43033866464195</v>
+        <v>39.49767081306474</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>40.97929493989754</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40.76350111302287</v>
+        <v>40.76350111302285</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>37.08393786285104</v>
@@ -1225,7 +1225,7 @@
         <v>39.36763275987783</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>39.95660463292443</v>
+        <v>39.95660463292442</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>40.31242628071044</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>40.2757081813652</v>
+        <v>40.39133262816812</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>38.26149130469778</v>
+        <v>38.12888285314968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39.38640548771792</v>
+        <v>39.54913405384696</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39.84542913061104</v>
+        <v>39.91100342122446</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>34.72204488642654</v>
+        <v>34.44342650394771</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>31.48896118255139</v>
+        <v>31.34565421799162</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>36.64984037554394</v>
+        <v>36.54912879775861</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>39.24606219510807</v>
+        <v>39.26296260480332</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>39.08971640717957</v>
+        <v>39.10941823742431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36.20725258967111</v>
+        <v>35.97807280803593</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38.82036427057914</v>
+        <v>38.82473274546706</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>39.85393884806982</v>
+        <v>39.86870669760915</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>43.57090694086448</v>
+        <v>43.52499576905594</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>41.95915402389046</v>
+        <v>41.95528961848706</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43.12295152336139</v>
+        <v>43.04847175439289</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>41.48759768633518</v>
+        <v>41.48941758423342</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>39.50468709600764</v>
+        <v>39.42394675280936</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>37.32585529301532</v>
+        <v>37.26204450661353</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>42.6032019326695</v>
+        <v>42.80815006784131</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>40.50240983205854</v>
+        <v>40.49372056974034</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>41.82347825731461</v>
+        <v>41.80092291806699</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39.56777569810902</v>
+        <v>39.36680445014665</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42.22694056937837</v>
+        <v>42.04122896483619</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>40.88897695786886</v>
+        <v>40.87257634782565</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>40.0582289846444</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>36.52072654333737</v>
+        <v>36.52072654333738</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>41.0709085237842</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>41.01654737359677</v>
+        <v>40.89139434911698</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>40.78098022807154</v>
+        <v>40.88327117055774</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41.46019968495671</v>
+        <v>41.53406420443751</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40.1596676129312</v>
+        <v>40.11580503698832</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>36.42590755180763</v>
+        <v>36.46795536807833</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.0827618519844</v>
+        <v>31.45907941001899</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>37.72514140690732</v>
+        <v>37.77042357301449</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>34.7338533095523</v>
+        <v>34.76942417860722</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>39.91643394837475</v>
+        <v>39.89124456855395</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38.31674538351441</v>
+        <v>38.12386891397777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40.44524133561054</v>
+        <v>40.36012048702827</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>38.31359880466493</v>
+        <v>38.35820108080533</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>43.60572101803282</v>
+        <v>43.72827308809651</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>44.7829975945105</v>
+        <v>44.85459896711573</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>44.51738048607738</v>
+        <v>44.56847469486083</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41.98861175705257</v>
+        <v>42.00781545039491</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>41.67417565447962</v>
+        <v>42.52321728017372</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>37.9727995721223</v>
+        <v>38.4448089587498</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>41.90564286231221</v>
+        <v>41.8426109671916</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>37.83321127772212</v>
+        <v>37.75783471139697</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>42.37567335487264</v>
+        <v>42.63913383595636</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>42.15111638156012</v>
+        <v>41.90962286849291</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>43.00264087760478</v>
+        <v>42.84965344507396</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>40.09281831789214</v>
+        <v>40.11108262628518</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>37.51093254359221</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38.53830258703627</v>
+        <v>38.53830258703626</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>37.4387016356434</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>38.52162234567004</v>
+        <v>38.49402444765283</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>40.29304482747506</v>
+        <v>40.29589151019287</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36.1827310697405</v>
+        <v>36.00955139571979</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37.46971552968339</v>
+        <v>37.4271673416196</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>35.39818444098002</v>
+        <v>35.43709350592757</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>36.7368189077124</v>
+        <v>36.89858521003379</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>31.07552920531846</v>
+        <v>31.07231075309051</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>32.80511717242323</v>
+        <v>32.76895139081368</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>37.84661466837756</v>
+        <v>37.96983561540758</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>39.15439595010974</v>
+        <v>39.26538283464174</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34.28185806245511</v>
+        <v>34.3617534080387</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>35.46313902051443</v>
+        <v>35.44566597120455</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>41.26865764879999</v>
+        <v>41.3516414477364</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>42.59299699678683</v>
+        <v>42.49123899621386</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38.81142418107582</v>
+        <v>38.69489333175599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39.47367257919175</v>
+        <v>39.47173661407879</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>39.64974124997781</v>
+        <v>39.91388694806673</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.91803093661708</v>
+        <v>39.80429990159892</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>33.90278733908544</v>
+        <v>33.95537236610029</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>34.85479581217805</v>
+        <v>34.84254849075801</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>40.13637864766289</v>
+        <v>40.37435660905194</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>40.94753894192106</v>
+        <v>41.02822517782347</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36.25401920922451</v>
+        <v>36.25729553927338</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>36.9731059593914</v>
+        <v>36.97544736583759</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>39.30545371803682</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39.05709987815717</v>
+        <v>39.05709987815716</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>37.44715183045828</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>40.43630804582816</v>
+        <v>40.31650176089213</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>39.35805013980131</v>
+        <v>39.318272428671</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38.36997130706208</v>
+        <v>38.44224092111552</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38.14192646130159</v>
+        <v>38.06602193502761</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>35.94527027410791</v>
+        <v>36.05345989628183</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>34.86722560663658</v>
+        <v>34.84535853780176</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>35.15468144354934</v>
+        <v>35.24074225072933</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>33.63666832792797</v>
+        <v>33.60135819405913</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>39.22599852494714</v>
+        <v>39.16440008288864</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37.73068463241594</v>
+        <v>37.7148758344001</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37.33624616522656</v>
+        <v>37.34649139766125</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>36.58465508745277</v>
+        <v>36.58366538897879</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>42.24971794079415</v>
+        <v>42.29825398422196</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>41.05396949699524</v>
+        <v>41.02051137768529</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>40.41136336757788</v>
+        <v>40.33639666267794</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>39.96722883613563</v>
+        <v>40.04499007757735</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>38.78654702299968</v>
+        <v>38.9345498008307</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>37.62117476272989</v>
+        <v>37.57026194058342</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>37.97039064693079</v>
+        <v>37.9336035553007</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>35.85373661297243</v>
+        <v>35.90735891877002</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>40.74712175249991</v>
+        <v>40.84454204915908</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>39.24508631919785</v>
+        <v>39.26895758611717</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>38.98843914660637</v>
+        <v>38.95761705770977</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>37.99173617682765</v>
+        <v>38.03146472581142</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>34.91270506454786</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>35.47262328114817</v>
+        <v>35.47262328114818</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>39.73893473556407</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>40.67372033544407</v>
+        <v>40.66708590724869</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>40.69367194576189</v>
+        <v>40.76892471584781</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38.9005488539422</v>
+        <v>38.88394577353625</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>39.41957650445424</v>
+        <v>39.42872817208418</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>36.37315037885321</v>
+        <v>36.41483150857538</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>35.09613826204098</v>
+        <v>35.12964039736443</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>34.18364955496239</v>
+        <v>34.08957683490197</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>35.01094750963387</v>
+        <v>34.99452249060743</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>39.35006301053903</v>
+        <v>39.29678297181754</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>38.62915240765607</v>
+        <v>38.69133745763402</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37.05877185828798</v>
+        <v>37.07833674502789</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>37.61876896188799</v>
+        <v>37.62069725171307</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>41.63212460290656</v>
+        <v>41.60328957258641</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>41.75191652684767</v>
+        <v>41.80352996846838</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>40.07886364182713</v>
+        <v>40.03993975416065</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40.310868078153</v>
+        <v>40.29138830750335</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>37.91307691693916</v>
+        <v>37.97840135716662</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>36.72245169575228</v>
+        <v>36.6312780330632</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>35.61226896322137</v>
+        <v>35.63480011894631</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>35.92005574855075</v>
+        <v>35.88864105417905</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>40.11658695237959</v>
+        <v>40.13129766159863</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>39.53592194399675</v>
+        <v>39.56656363847959</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>37.98286878217377</v>
+        <v>38.02326105517072</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>38.2694020465194</v>
+        <v>38.26173085084928</v>
       </c>
     </row>
     <row r="31">
